--- a/Non-admissions.xlsx
+++ b/Non-admissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.kuzmin\Desktop\Показать\Длинный продув\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Работа\Репы гитхаб\Рабочие проекты\Проекты, которые уже буду закидывать (Без мусора)\long_blowing\long_blowing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAD1D7F-5C2D-4471-8D4C-25E791B4CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633B82D-4D50-474F-9128-EFFAB48D83F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="После" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="45">
   <si>
     <t>Алко после</t>
   </si>
@@ -80,42 +80,21 @@
     <t>A270920181900-04452</t>
   </si>
   <si>
-    <t>Московская область, Ярославское шоссе, 222 (Братовщина)</t>
-  </si>
-  <si>
-    <t>ООО “Сберлогистика”</t>
-  </si>
-  <si>
     <t>A270920181900-05922</t>
   </si>
   <si>
-    <t>г. Москва, ул. Подольских курсантов, 24 А</t>
-  </si>
-  <si>
     <t>A270920181900-03764</t>
   </si>
   <si>
-    <t>г. Москва, ул. 2-й Нагатинский проезд, 8 - СТО «Нагатинская»</t>
-  </si>
-  <si>
-    <t>ООО СЭТРАНС</t>
-  </si>
-  <si>
     <t>A270920181900-02332</t>
   </si>
   <si>
-    <t>Московская область, городской округ Люберцы, рабочий поселок Томилино, территория Логистический центр, к 39</t>
-  </si>
-  <si>
     <t>A270920181900-04385</t>
   </si>
   <si>
     <t>A270920181900-04429</t>
   </si>
   <si>
-    <t>г. Москва, сельское поселение Марушкинское, д. Шарапово, ул. Придорожная, д. 7А, стр. 1</t>
-  </si>
-  <si>
     <t>A270920181900-04428</t>
   </si>
   <si>
@@ -125,45 +104,27 @@
     <t>A270920181900-06820</t>
   </si>
   <si>
-    <t>г. Москва, улица Рябиновая, дом 53</t>
-  </si>
-  <si>
     <t>A270920181900-03766</t>
   </si>
   <si>
-    <t>г. Москва, Верхнелихоборская ул., 4</t>
-  </si>
-  <si>
     <t>A270920181900-02334</t>
   </si>
   <si>
-    <t>г. Москва, Мытищинский район, Липкинское шоссе стр 2</t>
-  </si>
-  <si>
     <t>A270920181900-06823</t>
   </si>
   <si>
     <t>A270920181900-03151</t>
   </si>
   <si>
-    <t>г. Москва, ул. Автомоторная, д. 7</t>
-  </si>
-  <si>
     <t>A270920181900-02236</t>
   </si>
   <si>
     <t>A270920181900-03765</t>
   </si>
   <si>
-    <t>г. Зеленоград, ул. Академика Валиева, д.11, стр. 1 - СТО «Зеленоград»</t>
-  </si>
-  <si>
     <t>A270920181900-03777</t>
   </si>
   <si>
-    <t>Московская область, Пушкинский район, г.п. Софрино, 48 км Ярославского шоссе, владение 1</t>
-  </si>
-  <si>
     <t>A270920181900-01379</t>
   </si>
   <si>
@@ -176,9 +137,6 @@
     <t>A270920181900-05945</t>
   </si>
   <si>
-    <t>МО, г. Пушкино, ш. Ярославское, д. 222</t>
-  </si>
-  <si>
     <t>A270920181900-06824</t>
   </si>
   <si>
@@ -191,28 +149,13 @@
     <t>A270920181900-03767</t>
   </si>
   <si>
-    <t>г. Москва, ул. Электролитный проезд 4</t>
-  </si>
-  <si>
     <t>A270920181900-03768</t>
   </si>
   <si>
-    <t>г. Москва, ул. Дениса Давыдова, 2 стр. 5 - СТО «Фили»</t>
-  </si>
-  <si>
     <t>A270920181900-03769</t>
   </si>
   <si>
-    <t>г. Москва, ул. Ленинградское шоссе, д.4, стр. 1 - СТО «Сокол»</t>
-  </si>
-  <si>
     <t>Все осм</t>
-  </si>
-  <si>
-    <t>г.Москва, ул.Шоссейная, д.4Д</t>
-  </si>
-  <si>
-    <t>г. Москва, ул. Шоссейная, д. 4Д</t>
   </si>
   <si>
     <t>Алко до</t>
@@ -360,17 +303,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,9 +329,9 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -399,15 +341,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -492,9 +425,9 @@
     <tableColumn id="1" xr3:uid="{727316BA-598D-420A-8D5A-384F9166C483}" uniqueName="1" name="Алко после" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{2C203A05-8094-4156-B0BB-91D5B2E052A9}" uniqueName="2" name="Всего осмтров" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{7207BB65-E316-40C5-B9CC-3B66D4E56045}" uniqueName="3" name="id хоста" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{664B4F40-C93A-4928-A19F-2A5823ECC7AA}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{57373925-F499-4E05-810C-D981F8C9A84E}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{321FF592-9C3C-4AAE-BF14-0242085D0477}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{664B4F40-C93A-4928-A19F-2A5823ECC7AA}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{57373925-F499-4E05-810C-D981F8C9A84E}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{321FF592-9C3C-4AAE-BF14-0242085D0477}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -504,12 +437,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4EE946D3-9B2E-4725-B4E3-9E7A05B6BA53}" name="все___недопуски4" displayName="все___недопуски4" ref="B1:G32" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="B1:G31" xr:uid="{4EE946D3-9B2E-4725-B4E3-9E7A05B6BA53}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FC7E8975-AFB2-456A-BCD8-A3495E7B72AC}" uniqueName="1" name="Алко до" queryTableFieldId="1" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FC7E8975-AFB2-456A-BCD8-A3495E7B72AC}" uniqueName="1" name="Алко до" queryTableFieldId="1" totalsRowDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5E500D7A-0ADD-4949-A348-AF1BFCE82814}" uniqueName="2" name="Все осм" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{4C31A26F-F5C8-412A-A85E-2124529B80B9}" uniqueName="3" name="id хоста" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{0374FD2F-83F2-418F-A042-22C5A187F5EE}" uniqueName="4" name="Лицензия ПАК" queryTableFieldId="4" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0FE1E159-8A0C-4FA2-B622-013B7EAEDABF}" uniqueName="5" name="Адрес" queryTableFieldId="5" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D014AD5F-EBE6-43A2-8378-9B614715B015}" uniqueName="6" name="Компания" queryTableFieldId="6" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{0374FD2F-83F2-418F-A042-22C5A187F5EE}" uniqueName="4" name="Лицензия ПАК" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{0FE1E159-8A0C-4FA2-B622-013B7EAEDABF}" uniqueName="5" name="Адрес" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{D014AD5F-EBE6-43A2-8378-9B614715B015}" uniqueName="6" name="Компания" queryTableFieldId="6" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -522,9 +455,9 @@
     <tableColumn id="1" xr3:uid="{A227A807-1A8C-4EAC-8A39-6F58D0D9E102}" uniqueName="1" name="Алко до" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{4C3FCB52-3874-45A5-980E-92B380A9D295}" uniqueName="2" name="Все осм" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{A1DEAE82-5E91-4D7D-99B9-F70C3DC2511B}" uniqueName="3" name="id хоста" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D0B02012-07B4-48D3-B860-BF8885E16AB9}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2FB4ED80-B202-4E97-A087-C98247C2C5EB}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FBADAF21-B34E-4304-9760-1CBD954B5006}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D0B02012-07B4-48D3-B860-BF8885E16AB9}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2FB4ED80-B202-4E97-A087-C98247C2C5EB}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FBADAF21-B34E-4304-9760-1CBD954B5006}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -795,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,15 +778,15 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -865,18 +798,18 @@
         <v>4903</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -888,18 +821,18 @@
         <v>2799</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -911,18 +844,18 @@
         <v>6403</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -934,18 +867,18 @@
         <v>4843</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -957,18 +890,18 @@
         <v>1959</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -980,18 +913,18 @@
         <v>1958</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1003,18 +936,18 @@
         <v>1965</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1026,18 +959,18 @@
         <v>6423</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1049,18 +982,18 @@
         <v>2801</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1072,18 +1005,18 @@
         <v>6450</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1095,18 +1028,18 @@
         <v>6494</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1118,18 +1051,18 @@
         <v>1952</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1141,18 +1074,18 @@
         <v>1969</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1164,18 +1097,18 @@
         <v>2800</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1187,18 +1120,18 @@
         <v>1955</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1210,18 +1143,18 @@
         <v>1967</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1233,18 +1166,18 @@
         <v>1914</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1256,18 +1189,18 @@
         <v>6493</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1279,18 +1212,18 @@
         <v>4975</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1302,18 +1235,18 @@
         <v>5571</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1325,18 +1258,18 @@
         <v>6096</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1348,18 +1281,18 @@
         <v>1968</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1371,18 +1304,18 @@
         <v>1951</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1394,18 +1327,18 @@
         <v>2802</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1417,18 +1350,18 @@
         <v>2803</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1440,13 +1373,13 @@
         <v>2804</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1470,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FC560C-1BAA-4409-A691-DF53CF2D2CD1}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1523,13 +1456,13 @@
         <v>1965</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1547,13 +1480,13 @@
         <v>6403</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,13 +1504,13 @@
         <v>1959</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1595,13 +1528,13 @@
         <v>6092</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1619,13 +1552,13 @@
         <v>2799</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1643,13 +1576,13 @@
         <v>4843</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1667,13 +1600,13 @@
         <v>2803</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1691,13 +1624,13 @@
         <v>2802</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1715,13 +1648,13 @@
         <v>1914</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1739,13 +1672,13 @@
         <v>2804</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,13 +1696,13 @@
         <v>4903</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1787,13 +1720,13 @@
         <v>6423</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1811,13 +1744,13 @@
         <v>1968</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1835,13 +1768,13 @@
         <v>1914</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1859,13 +1792,13 @@
         <v>1969</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1883,13 +1816,13 @@
         <v>1952</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1907,13 +1840,13 @@
         <v>1955</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1931,13 +1864,13 @@
         <v>4975</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1955,13 +1888,13 @@
         <v>5571</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1979,13 +1912,13 @@
         <v>6096</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2003,13 +1936,13 @@
         <v>1913</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2027,13 +1960,13 @@
         <v>6450</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -2051,13 +1984,13 @@
         <v>2801</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,13 +2008,13 @@
         <v>1958</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -2102,10 +2035,10 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -2123,13 +2056,13 @@
         <v>1914</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -2147,13 +2080,13 @@
         <v>1951</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -2171,13 +2104,13 @@
         <v>1967</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -2195,13 +2128,13 @@
         <v>2800</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -2219,66 +2152,63 @@
         <v>6190</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12" t="s">
-        <v>59</v>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="13">
+        <v>34</v>
+      </c>
+      <c r="E35" s="12">
         <v>10</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>7</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="E38" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A31" xr:uid="{48FC560C-1BAA-4409-A691-DF53CF2D2CD1}"/>
@@ -2293,8 +2223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3433E461-D627-4597-8D16-486A7A2C99A3}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2309,10 +2239,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2338,13 +2268,13 @@
         <v>1965</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2358,13 +2288,13 @@
         <v>6403</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2378,13 +2308,13 @@
         <v>1959</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2398,13 +2328,13 @@
         <v>6092</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2418,13 +2348,13 @@
         <v>2799</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2438,13 +2368,13 @@
         <v>4843</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2458,13 +2388,13 @@
         <v>2803</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2478,13 +2408,13 @@
         <v>2802</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,13 +2428,13 @@
         <v>1914</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2518,13 +2448,13 @@
         <v>2804</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2538,13 +2468,13 @@
         <v>4903</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2558,13 +2488,13 @@
         <v>6423</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2578,13 +2508,13 @@
         <v>1968</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2598,13 +2528,13 @@
         <v>1914</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2618,13 +2548,13 @@
         <v>1969</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2638,13 +2568,13 @@
         <v>1952</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2658,13 +2588,13 @@
         <v>1955</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2678,13 +2608,13 @@
         <v>4975</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2698,13 +2628,13 @@
         <v>5571</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2718,13 +2648,13 @@
         <v>6096</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2738,13 +2668,13 @@
         <v>1913</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2758,13 +2688,13 @@
         <v>6450</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2778,13 +2708,13 @@
         <v>2801</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2798,13 +2728,13 @@
         <v>1958</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2821,10 +2751,10 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2838,13 +2768,13 @@
         <v>1914</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2858,13 +2788,13 @@
         <v>1951</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2878,13 +2808,13 @@
         <v>1967</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2898,13 +2828,13 @@
         <v>2800</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,13 +2848,13 @@
         <v>6190</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
